--- a/Planilla de Metricas V2.1.xlsx
+++ b/Planilla de Metricas V2.1.xlsx
@@ -781,28 +781,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -866,7 +844,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -877,10 +855,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0335919011306863"/>
-          <c:y val="0.0740419628923184"/>
-          <c:w val="0.401525111753879"/>
-          <c:h val="0.851569273452402"/>
+          <c:x val="0.0335941095260009"/>
+          <c:y val="0.0740548040235865"/>
+          <c:w val="0.401485766879232"/>
+          <c:h val="0.851370100589664"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -1107,7 +1085,7 @@
                   <c:v>0.00208333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0138888888888889</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.25</c:v>
@@ -1168,9 +1146,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>418320</xdr:colOff>
+      <xdr:colOff>417960</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1178,8 +1156,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5286240" y="6533640"/>
-        <a:ext cx="5475960" cy="2075760"/>
+        <a:off x="5295960" y="6533640"/>
+        <a:ext cx="5475600" cy="2075400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1200,15 +1178,15 @@
   <dimension ref="1:44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="L21" activeCellId="0" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="1.07287449392713"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="11" min="3" style="2" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="14" min="13" style="2" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="1.07287449392713"/>
     <col collapsed="false" hidden="true" max="1025" min="16" style="2" width="0"/>
@@ -3688,16 +3666,18 @@
         <f aca="false">IFERROR(IF(OR(ISBLANK(H19),ISBLANK(I19)),"",IF(I19&gt;=H19,I19-H19,"Error")),"Error")</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K19" s="40"/>
+      <c r="K19" s="40" t="n">
+        <v>1</v>
+      </c>
       <c r="L19" s="41" t="n">
-        <v>0</v>
+        <v>0.0138888888888889</v>
       </c>
       <c r="M19" s="42" t="n">
         <v>156</v>
       </c>
       <c r="N19" s="43" t="n">
         <f aca="false">IFERROR(IF(OR(J19="",ISBLANK(L19)),"",J19+L19),"Error")</f>
-        <v>0.166666666666667</v>
+        <v>0.180555555555556</v>
       </c>
       <c r="O19" s="18"/>
       <c r="P19" s="23"/>
@@ -3886,11 +3866,11 @@
       </c>
       <c r="K26" s="50" t="n">
         <f aca="false">SUM(K18:K25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="46" t="n">
         <f aca="false">SUM(L18:L25)</f>
-        <v>0</v>
+        <v>0.0138888888888889</v>
       </c>
       <c r="M26" s="51" t="n">
         <f aca="false">IF(SUM(M18:M25)=0,"Completar",SUM(M18:M25))</f>
@@ -3898,7 +3878,7 @@
       </c>
       <c r="N26" s="21" t="n">
         <f aca="false">IF(OR(COUNTIF(N18:N25,"Error")&gt;0,COUNTIF(N18:N25,"Completar")&gt;0),"Error",IF(SUM(N18:N25)=0,"Completar",SUM(N18:N25)))</f>
-        <v>0.25</v>
+        <v>0.263888888888889</v>
       </c>
       <c r="O26" s="10"/>
       <c r="P26" s="52"/>
@@ -6077,7 +6057,7 @@
       <c r="D34" s="54"/>
       <c r="E34" s="59" t="n">
         <f aca="false">IF(M26="Completar","Completar",IFERROR(M26/(N26*24),"Error"))</f>
-        <v>83.5000000000001</v>
+        <v>79.1052631578946</v>
       </c>
       <c r="F34" s="59"/>
       <c r="G34" s="60"/>
@@ -7108,7 +7088,7 @@
       <c r="D35" s="54"/>
       <c r="E35" s="55" t="n">
         <f aca="false">IF(K26=0,0,IFERROR(ROUNDUP(K26/(M26/100),0),"Error"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="55"/>
       <c r="G35" s="60"/>
@@ -8139,7 +8119,7 @@
       <c r="D36" s="54"/>
       <c r="E36" s="63" t="n">
         <f aca="false">IF(K26=0,0,IFERROR(K26/M26,"Error"))</f>
-        <v>0</v>
+        <v>0.00199600798403194</v>
       </c>
       <c r="F36" s="63"/>
       <c r="G36" s="60"/>
@@ -9174,7 +9154,7 @@
       </c>
       <c r="F37" s="63" t="n">
         <f aca="false">IF(E37="Completar",E37,IFERROR(E37/$E$43,"Error"))</f>
-        <v>0.318725099601594</v>
+        <v>0.310478654592497</v>
       </c>
       <c r="G37" s="60"/>
       <c r="H37" s="61"/>
@@ -10208,7 +10188,7 @@
       </c>
       <c r="F38" s="63" t="n">
         <f aca="false">IF(E38="Completar",E38,IFERROR(E38/$E$43,"Error"))</f>
-        <v>0.159362549800797</v>
+        <v>0.155239327296248</v>
       </c>
       <c r="G38" s="60"/>
       <c r="H38" s="61"/>
@@ -11242,7 +11222,7 @@
       </c>
       <c r="F39" s="63" t="n">
         <f aca="false">IF(E39="Completar",E39,IFERROR(E39/$E$43,"Error"))</f>
-        <v>0.0398406374501993</v>
+        <v>0.0388098318240622</v>
       </c>
       <c r="G39" s="60"/>
       <c r="H39" s="61"/>
@@ -12276,7 +12256,7 @@
       </c>
       <c r="F40" s="63" t="n">
         <f aca="false">IF(E40="Completar",E40,IFERROR(E40/$E$43,"Error"))</f>
-        <v>0.00398406374501992</v>
+        <v>0.0038809831824062</v>
       </c>
       <c r="G40" s="60"/>
       <c r="H40" s="61"/>
@@ -13306,11 +13286,11 @@
       <c r="D41" s="54"/>
       <c r="E41" s="64" t="n">
         <f aca="false">L26</f>
-        <v>0</v>
+        <v>0.0138888888888889</v>
       </c>
       <c r="F41" s="63" t="n">
         <f aca="false">IF(E41="Completar",E41,IFERROR(E41/$E$43,"Completar"))</f>
-        <v>0</v>
+        <v>0.0258732212160414</v>
       </c>
       <c r="G41" s="60"/>
       <c r="H41" s="61"/>
@@ -14344,7 +14324,7 @@
       </c>
       <c r="F42" s="63" t="n">
         <f aca="false">IF(E42="Completar",E42,IFERROR(E42/$E$43,"Completar"))</f>
-        <v>0.47808764940239</v>
+        <v>0.465717981888745</v>
       </c>
       <c r="G42" s="60"/>
       <c r="H42" s="61"/>
@@ -15374,7 +15354,7 @@
       <c r="D43" s="65"/>
       <c r="E43" s="48" t="n">
         <f aca="false">IF(COUNTIF(E37:E42,"Error")&gt;0,"Error",IF(SUM(E37:E42)=0,"Completar",SUM(E37:E42)))</f>
-        <v>0.522916666666667</v>
+        <v>0.536805555555556</v>
       </c>
       <c r="F43" s="48"/>
       <c r="G43" s="66"/>
